--- a/P0_Hello_to_RoSA/client.xlsx
+++ b/P0_Hello_to_RoSA/client.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D3D6C9-5796-4F8F-A9A5-B8AFA35D7515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB0BCD-CC8A-42D4-B11F-7C70B1F9291F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2112" yWindow="1344" windowWidth="11796" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Steve</t>
   </si>
   <si>
-    <t>Client:</t>
+    <t>Client name:</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/P0_Hello_to_RoSA/client.xlsx
+++ b/P0_Hello_to_RoSA/client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB0BCD-CC8A-42D4-B11F-7C70B1F9291F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05239578-8094-4058-A4B7-F0BCC772F0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="1344" windowWidth="11796" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Steve</t>
+    <t>Clientname</t>
   </si>
   <si>
-    <t>Client name:</t>
+    <t>Aaron Lao</t>
+  </si>
+  <si>
+    <t>Brian Reeves</t>
   </si>
 </sst>
 </file>
@@ -348,22 +351,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/P0_Hello_to_RoSA/client.xlsx
+++ b/P0_Hello_to_RoSA/client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05239578-8094-4058-A4B7-F0BCC772F0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749EAF6-41BC-439F-B8C7-4C6048CCCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2808" yWindow="1836" windowWidth="11796" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Clientname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Aaron Lao</t>
   </si>
   <si>
-    <t>Brian Reeves</t>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>Aaron@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,19 +365,20 @@
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/P0_Hello_to_RoSA/client.xlsx
+++ b/P0_Hello_to_RoSA/client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749EAF6-41BC-439F-B8C7-4C6048CCCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3AC10-A42C-4AAA-B9F0-2B82D2DA84C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2808" yWindow="1836" windowWidth="11796" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6396" yWindow="540" windowWidth="11808" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Aaron Lao</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Aaron@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajmlaocen@gmail.com</t>
+  </si>
+  <si>
+    <t>aaron.lao@revature.net</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -381,6 +387,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P0_Hello_to_RoSA/client.xlsx
+++ b/P0_Hello_to_RoSA/client.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\alao_p0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E4289-7B3E-4918-A62D-5E91D267B72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FA9A2-39F1-46AA-8381-341E00A49DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6396" yWindow="540" windowWidth="11808" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/P0_Hello_to_RoSA/client.xlsx
+++ b/P0_Hello_to_RoSA/client.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFC2AA1-14F2-4EE4-BABD-01AD205D515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87F29C-56DB-40DF-9A04-212EA355E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="11928" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5532" yWindow="-6804" windowWidth="28572" windowHeight="19764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Client Name</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>aaron.lao@revature.net</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Brian@mail.net</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>Jo@mail.bis</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>stp@me.com</t>
   </si>
 </sst>
 </file>
@@ -369,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -404,6 +422,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P0_Hello_to_RoSA/client.xlsx
+++ b/P0_Hello_to_RoSA/client.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87F29C-56DB-40DF-9A04-212EA355E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FA9A2-39F1-46AA-8381-341E00A49DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5532" yWindow="-6804" windowWidth="28572" windowHeight="19764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Client Name</t>
   </si>
@@ -46,30 +46,6 @@
   </si>
   <si>
     <t>asd</t>
-  </si>
-  <si>
-    <t>Aaron Lao</t>
-  </si>
-  <si>
-    <t>aaron.lao@revature.net</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Brian@mail.net</t>
-  </si>
-  <si>
-    <t>Jo</t>
-  </si>
-  <si>
-    <t>Jo@mail.bis</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>stp@me.com</t>
   </si>
 </sst>
 </file>
@@ -387,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -414,38 +390,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
